--- a/Data Cleaning Steps.xlsx
+++ b/Data Cleaning Steps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DACA66D5-47EB-48C6-8D65-E478D7438ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0069D96F-9306-4E0D-B880-BD5DDF516C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="915" windowWidth="15375" windowHeight="8325" xr2:uid="{719F269D-B69C-4E4A-8ED2-44F37587C91D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{719F269D-B69C-4E4A-8ED2-44F37587C91D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Reading  CSV</t>
   </si>
@@ -57,14 +57,65 @@
   </si>
   <si>
     <t>Save data frame in a new csv.</t>
+  </si>
+  <si>
+    <t>Changes "Renta Unit Drescription" column to title case.</t>
+  </si>
+  <si>
+    <t>Data Analysis</t>
+  </si>
+  <si>
+    <t>Groupby Average Vacant days by years and cheare a plot.</t>
+  </si>
+  <si>
+    <t>Groupby Average Vacant, Average Tenantable and Average Untenantable Days  by years and cheare a plots.</t>
+  </si>
+  <si>
+    <t>On the Months and Average Vacant Days plot we observed a sharp fall from July 2020. Which we will discuse later.</t>
+  </si>
+  <si>
+    <t>Groupby Average Vacant Days by Number of Bedrooms and plot a figure. And we observed 5 Bedroom data set is defirent.</t>
+  </si>
+  <si>
+    <t>Looking deeper of 5 Bedroom data set we split it with Type of dwellling and plot it.</t>
+  </si>
+  <si>
+    <t>From the plot we observed clearly that 5 Bedroom Detached House data is very different that the entire data set.</t>
+  </si>
+  <si>
+    <t>We did the quartile test on the data and find nine outliers of 5 Bedroom Detached House data</t>
+  </si>
+  <si>
+    <t>We drop the top three outlier from the data and did the Average Vacant Days by Number of Bedrooms. 
+And we observed a clear downward trend from Bedroom 2 to 7.</t>
+  </si>
+  <si>
+    <t>We incorporate number of monthly covid cases with the monthly average Vacant Days and plot it.</t>
+  </si>
+  <si>
+    <t>Data exploration and cleanup</t>
+  </si>
+  <si>
+    <t>Collect four csv files from data.gov.au</t>
+  </si>
+  <si>
+    <t>Collect coviv case data from Qld gov website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,8 +143,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F403E9-2707-4DAC-9550-63996ED6F53A}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,59 +476,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
